--- a/MINUTES/Minutes.xlsx
+++ b/MINUTES/Minutes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\C445 (Capstone)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Gits_Publish\Nursing-App\MINUTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8BEE55-E8FA-4652-B84F-C21529DCEFC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69721C89-7125-42E2-946B-65D5F3A4092B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59507854-A402-46B2-973D-1F749A9777AC}"/>
+    <workbookView xWindow="6780" yWindow="2910" windowWidth="21600" windowHeight="11340" xr2:uid="{59507854-A402-46B2-973D-1F749A9777AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Project Scope /Tools / Design</t>
+  </si>
+  <si>
+    <t>Tools / Database Design</t>
   </si>
 </sst>
 </file>
@@ -541,16 +544,16 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="22.6640625" customWidth="1"/>
+    <col min="1" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="33" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -567,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>43718</v>
       </c>
@@ -584,7 +587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>43732</v>
       </c>
@@ -602,203 +605,214 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>43746</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C4" s="8">
+        <f>SUM(C3, B4)</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>

--- a/MINUTES/Minutes.xlsx
+++ b/MINUTES/Minutes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Gits_Publish\Nursing-App\MINUTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69721C89-7125-42E2-946B-65D5F3A4092B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84370A15-C0DD-45E8-981F-0769AD4DD734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="2910" windowWidth="21600" windowHeight="11340" xr2:uid="{59507854-A402-46B2-973D-1F749A9777AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59507854-A402-46B2-973D-1F749A9777AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Tools / Database Design</t>
+  </si>
+  <si>
+    <t>Login Form / Database</t>
   </si>
 </sst>
 </file>
@@ -624,11 +627,22 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="7">
+        <v>43776</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <f>SUM(C4, B5)</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
